--- a/Proyectos/2015/12/P1370 - HR, Enrique Peña Soto _MO/Calidad/No_conformidades.xlsx
+++ b/Proyectos/2015/12/P1370 - HR, Enrique Peña Soto _MO/Calidad/No_conformidades.xlsx
@@ -56,13 +56,13 @@
     <t>Hito cierre no tiene fecha de real de cierre</t>
   </si>
   <si>
+    <t>Agregar fecha real de cierre</t>
+  </si>
+  <si>
+    <t>No hay evidencia de documento imagen de comprobante de pago</t>
+  </si>
+  <si>
     <t>En proceso</t>
-  </si>
-  <si>
-    <t>Agregar fecha real de cierre</t>
-  </si>
-  <si>
-    <t>No hay evidencia de documento imagen de comprobante de pago</t>
   </si>
   <si>
     <t>Integrar el comprobante de pago </t>
@@ -310,7 +310,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -409,10 +409,10 @@
         <v>42355</v>
       </c>
       <c r="F5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -420,7 +420,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>9</v>
@@ -432,7 +432,7 @@
         <v>42357</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>16</v>

--- a/Proyectos/2015/12/P1370 - HR, Enrique Peña Soto _MO/Calidad/No_conformidades.xlsx
+++ b/Proyectos/2015/12/P1370 - HR, Enrique Peña Soto _MO/Calidad/No_conformidades.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>REPORTE DE NO CONFORMIDADES P1370 - HR, Enrique Peña Soto _MO</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>No hay evidencia de documento imagen de comprobante de pago</t>
-  </si>
-  <si>
-    <t>En proceso</t>
   </si>
   <si>
     <t>Integrar el comprobante de pago </t>
@@ -309,8 +306,8 @@
   </sheetPr>
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -432,10 +429,10 @@
         <v>42357</v>
       </c>
       <c r="F6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
